--- a/py/apps/web-scraper/Files/Final/Course-Tracker-AWS-Solutions-Architect–Professional-SAP-C01.xlsx
+++ b/py/apps/web-scraper/Files/Final/Course-Tracker-AWS-Solutions-Architect–Professional-SAP-C01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Experiments\Playground\py\apps\web-scraper\Files\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E794992-626B-4B03-8241-60D945D8271D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129B7720-D2AC-4B9E-91A6-41410E2EC293}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Codes" sheetId="10" state="hidden" r:id="rId1"/>
@@ -2218,7 +2218,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="169" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="34" x14ac:knownFonts="1">
     <font>
@@ -3006,14 +3006,33 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="20" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3039,25 +3058,6 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="20" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="20" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="20" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Explanatory Text" xfId="2" builtinId="53"/>
@@ -3065,40 +3065,7 @@
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="102">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="99">
     <dxf>
       <fill>
         <patternFill>
@@ -4496,9 +4463,9 @@
   </sheetPr>
   <dimension ref="B2:V45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22:L22"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4520,54 +4487,54 @@
         <v>43</v>
       </c>
       <c r="D2" s="19"/>
-      <c r="I2" s="62" t="s">
+      <c r="I2" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
     </row>
     <row r="3" spans="2:22" ht="8.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="70"/>
     </row>
     <row r="4" spans="2:22" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="62"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
+      <c r="U4" s="70"/>
+      <c r="V4" s="70"/>
     </row>
     <row r="5" spans="2:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="19" t="s">
@@ -4578,110 +4545,110 @@
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="62"/>
-      <c r="T5" s="62"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
     </row>
     <row r="6" spans="2:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B6" s="33" t="s">
         <v>676</v>
       </c>
-      <c r="C6" s="73">
+      <c r="C6" s="68">
         <v>0.125</v>
       </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="62"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="70"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="70"/>
+      <c r="V6" s="70"/>
     </row>
     <row r="7" spans="2:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
         <v>677</v>
       </c>
-      <c r="C7" s="74">
+      <c r="C7" s="69">
         <v>0.31</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="63"/>
-      <c r="S7" s="63"/>
-      <c r="T7" s="63"/>
-      <c r="U7" s="63"/>
-      <c r="V7" s="63"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="71"/>
+      <c r="S7" s="71"/>
+      <c r="T7" s="71"/>
+      <c r="U7" s="71"/>
+      <c r="V7" s="71"/>
     </row>
     <row r="8" spans="2:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B8" s="33" t="s">
         <v>678</v>
       </c>
-      <c r="C8" s="74">
+      <c r="C8" s="69">
         <v>0.15</v>
       </c>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
       <c r="H8" s="40"/>
     </row>
     <row r="9" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="33" t="s">
         <v>679</v>
       </c>
-      <c r="C9" s="74">
+      <c r="C9" s="69">
         <v>0.125</v>
       </c>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
       <c r="H9" s="40"/>
     </row>
     <row r="10" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="33" t="s">
         <v>680</v>
       </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="74">
+      <c r="C10" s="62"/>
+      <c r="D10" s="69">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E10" s="74"/>
+      <c r="E10" s="69"/>
     </row>
     <row r="11" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="65">
+      <c r="C11" s="72">
         <v>1</v>
       </c>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
     </row>
     <row r="14" spans="2:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="19" t="s">
@@ -4705,144 +4672,144 @@
       <c r="B15" s="36" t="s">
         <v>681</v>
       </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
     </row>
     <row r="16" spans="2:22" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="76" t="s">
+      <c r="C16" s="63" t="s">
         <v>682</v>
       </c>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
     </row>
     <row r="17" spans="2:12" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="76" t="s">
+      <c r="C17" s="63" t="s">
         <v>683</v>
       </c>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
     </row>
     <row r="18" spans="2:12" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="76" t="s">
+      <c r="C18" s="63" t="s">
         <v>684</v>
       </c>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="77"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
     </row>
     <row r="19" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="41"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
     </row>
     <row r="20" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="36" t="s">
         <v>685</v>
       </c>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
     </row>
     <row r="21" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="76" t="s">
+      <c r="C21" s="63" t="s">
         <v>686</v>
       </c>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="77"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
     </row>
     <row r="22" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="76" t="s">
+      <c r="C22" s="63" t="s">
         <v>687</v>
       </c>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="77"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
     </row>
     <row r="23" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="76" t="s">
+      <c r="C23" s="63" t="s">
         <v>688</v>
       </c>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="77"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
     </row>
     <row r="24" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="78" t="s">
+      <c r="C24" s="66" t="s">
         <v>689</v>
       </c>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="79"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="67"/>
     </row>
     <row r="25" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="76" t="s">
+      <c r="C25" s="63" t="s">
         <v>690</v>
       </c>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="77"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
     </row>
     <row r="26" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="61"/>
@@ -4867,60 +4834,60 @@
       <c r="F27" s="37"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C28" s="76" t="s">
+      <c r="C28" s="63" t="s">
         <v>692</v>
       </c>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="77"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="77"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="77"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C29" s="76" t="s">
+      <c r="C29" s="63" t="s">
         <v>693</v>
       </c>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="77"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="77"/>
-      <c r="L29" s="77"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="64"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C30" s="76" t="s">
+      <c r="C30" s="63" t="s">
         <v>694</v>
       </c>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="77"/>
-      <c r="J30" s="77"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="77"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C31" s="76" t="s">
+      <c r="C31" s="63" t="s">
         <v>695</v>
       </c>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="77"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="64"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="61"/>
@@ -4939,174 +4906,196 @@
       <c r="B33" s="36" t="s">
         <v>696</v>
       </c>
-      <c r="C33" s="64"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="64"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C34" s="76" t="s">
+      <c r="C34" s="63" t="s">
         <v>697</v>
       </c>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="77"/>
-      <c r="K34" s="77"/>
-      <c r="L34" s="77"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="64"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C35" s="76" t="s">
+      <c r="C35" s="63" t="s">
         <v>698</v>
       </c>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="77"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C36" s="76" t="s">
+      <c r="C36" s="63" t="s">
         <v>699</v>
       </c>
-      <c r="D36" s="77"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="77"/>
-      <c r="I36" s="77"/>
-      <c r="J36" s="77"/>
-      <c r="K36" s="77"/>
-      <c r="L36" s="77"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="64"/>
+      <c r="L36" s="64"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="61"/>
-      <c r="C37" s="76"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="77"/>
-      <c r="F37" s="77"/>
-      <c r="G37" s="77"/>
-      <c r="H37" s="77"/>
-      <c r="I37" s="77"/>
-      <c r="J37" s="77"/>
-      <c r="K37" s="77"/>
-      <c r="L37" s="77"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="64"/>
+      <c r="L37" s="64"/>
     </row>
     <row r="38" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="36" t="s">
         <v>680</v>
       </c>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
     </row>
     <row r="39" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="76" t="s">
+      <c r="C39" s="63" t="s">
         <v>700</v>
       </c>
-      <c r="D39" s="77"/>
-      <c r="E39" s="77"/>
-      <c r="F39" s="77"/>
-      <c r="G39" s="77"/>
-      <c r="H39" s="77"/>
-      <c r="I39" s="77"/>
-      <c r="J39" s="77"/>
-      <c r="K39" s="77"/>
-      <c r="L39" s="77"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="64"/>
+      <c r="L39" s="64"/>
     </row>
     <row r="40" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="76" t="s">
+      <c r="C40" s="63" t="s">
         <v>701</v>
       </c>
-      <c r="D40" s="77"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="77"/>
-      <c r="I40" s="77"/>
-      <c r="J40" s="77"/>
-      <c r="K40" s="77"/>
-      <c r="L40" s="77"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="64"/>
+      <c r="H40" s="64"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="64"/>
+      <c r="L40" s="64"/>
     </row>
     <row r="41" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="76" t="s">
+      <c r="C41" s="63" t="s">
         <v>702</v>
       </c>
-      <c r="D41" s="77"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="77"/>
-      <c r="H41" s="77"/>
-      <c r="I41" s="77"/>
-      <c r="J41" s="77"/>
-      <c r="K41" s="77"/>
-      <c r="L41" s="77"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="64"/>
+      <c r="H41" s="64"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="64"/>
+      <c r="K41" s="64"/>
+      <c r="L41" s="64"/>
     </row>
     <row r="42" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="76" t="s">
+      <c r="C42" s="63" t="s">
         <v>703</v>
       </c>
-      <c r="D42" s="77"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="77"/>
-      <c r="G42" s="77"/>
-      <c r="H42" s="77"/>
-      <c r="I42" s="77"/>
-      <c r="J42" s="77"/>
-      <c r="K42" s="77"/>
-      <c r="L42" s="77"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="64"/>
+      <c r="K42" s="64"/>
+      <c r="L42" s="64"/>
     </row>
     <row r="43" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="76" t="s">
+      <c r="C43" s="63" t="s">
         <v>704</v>
       </c>
-      <c r="D43" s="77"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="77"/>
-      <c r="I43" s="77"/>
-      <c r="J43" s="77"/>
-      <c r="K43" s="77"/>
-      <c r="L43" s="77"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="64"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="64"/>
+      <c r="K43" s="64"/>
+      <c r="L43" s="64"/>
     </row>
     <row r="44" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="76" t="s">
+      <c r="C44" s="63" t="s">
         <v>705</v>
       </c>
-      <c r="D44" s="77"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="77"/>
-      <c r="G44" s="77"/>
-      <c r="H44" s="77"/>
-      <c r="I44" s="77"/>
-      <c r="J44" s="77"/>
-      <c r="K44" s="77"/>
-      <c r="L44" s="77"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="64"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="64"/>
+      <c r="K44" s="64"/>
+      <c r="L44" s="64"/>
     </row>
     <row r="45" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="61"/>
-      <c r="C45" s="76"/>
-      <c r="D45" s="77"/>
-      <c r="E45" s="77"/>
-      <c r="F45" s="77"/>
-      <c r="G45" s="77"/>
-      <c r="H45" s="77"/>
-      <c r="I45" s="77"/>
-      <c r="J45" s="77"/>
-      <c r="K45" s="77"/>
-      <c r="L45" s="77"/>
+      <c r="C45" s="63"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="64"/>
+      <c r="K45" s="64"/>
+      <c r="L45" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="I2:V7"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C18:L18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C21:L21"/>
+    <mergeCell ref="C22:L22"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="C17:L17"/>
+    <mergeCell ref="C23:L23"/>
+    <mergeCell ref="C25:L25"/>
+    <mergeCell ref="C24:L24"/>
+    <mergeCell ref="C28:L28"/>
+    <mergeCell ref="C29:L29"/>
     <mergeCell ref="C45:L45"/>
     <mergeCell ref="C41:L41"/>
     <mergeCell ref="C42:L42"/>
@@ -5121,202 +5110,180 @@
     <mergeCell ref="C35:L35"/>
     <mergeCell ref="C36:L36"/>
     <mergeCell ref="C37:L37"/>
-    <mergeCell ref="C23:L23"/>
-    <mergeCell ref="C25:L25"/>
-    <mergeCell ref="C24:L24"/>
-    <mergeCell ref="C28:L28"/>
-    <mergeCell ref="C29:L29"/>
-    <mergeCell ref="C18:L18"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C21:L21"/>
-    <mergeCell ref="C22:L22"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="C17:L17"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="I2:V7"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="C19:G19"/>
   </mergeCells>
   <conditionalFormatting sqref="C17:C18">
-    <cfRule type="expression" dxfId="101" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="40" stopIfTrue="1">
       <formula>$B17="New"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="41" stopIfTrue="1">
       <formula>$B17="IN-PROGRESS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="42" stopIfTrue="1">
       <formula>$B17="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="98" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="61" stopIfTrue="1">
       <formula>$B6="New"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="62" stopIfTrue="1">
       <formula>$B6="IN-PROGRESS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="63" stopIfTrue="1">
       <formula>$B6="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="95" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="58" stopIfTrue="1">
       <formula>$B7="New"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="59" stopIfTrue="1">
       <formula>$B7="IN-PROGRESS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="60" stopIfTrue="1">
       <formula>$B7="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B11">
-    <cfRule type="expression" dxfId="92" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="55" stopIfTrue="1">
       <formula>$B8="New"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="56" stopIfTrue="1">
       <formula>$B8="IN-PROGRESS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="57" stopIfTrue="1">
       <formula>$B8="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:L32">
-    <cfRule type="expression" dxfId="89" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="43" stopIfTrue="1">
       <formula>$B32="New"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="44" stopIfTrue="1">
       <formula>$B32="IN-PROGRESS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="45" stopIfTrue="1">
       <formula>$B32="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="86" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="37" stopIfTrue="1">
       <formula>$B19="New"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="38" stopIfTrue="1">
       <formula>$B19="IN-PROGRESS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="39" stopIfTrue="1">
       <formula>$B19="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:G26 C21">
-    <cfRule type="expression" dxfId="83" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="46" stopIfTrue="1">
       <formula>$B21="New"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="47" stopIfTrue="1">
       <formula>$B21="IN-PROGRESS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="48" stopIfTrue="1">
       <formula>$B21="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="80" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="31" stopIfTrue="1">
       <formula>$B16="New"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="32" stopIfTrue="1">
       <formula>$B16="IN-PROGRESS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="33" stopIfTrue="1">
       <formula>$B16="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="expression" dxfId="77" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="25" stopIfTrue="1">
       <formula>$B19="New"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="26" stopIfTrue="1">
       <formula>$B19="IN-PROGRESS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="27" stopIfTrue="1">
       <formula>$B19="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C25">
-    <cfRule type="expression" dxfId="74" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="22" stopIfTrue="1">
       <formula>$B22="New"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="23" stopIfTrue="1">
       <formula>$B22="IN-PROGRESS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="24" stopIfTrue="1">
       <formula>$B22="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26:L26">
-    <cfRule type="expression" dxfId="71" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="19" stopIfTrue="1">
       <formula>$B26="New"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="20" stopIfTrue="1">
       <formula>$B26="IN-PROGRESS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="21" stopIfTrue="1">
       <formula>$B26="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:C37">
-    <cfRule type="expression" dxfId="68" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="10" stopIfTrue="1">
       <formula>$B34="New"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="11" stopIfTrue="1">
       <formula>$B34="IN-PROGRESS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="12" stopIfTrue="1">
       <formula>$B34="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:C29 C31">
-    <cfRule type="expression" dxfId="65" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="13" stopIfTrue="1">
       <formula>$B28="New"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="14" stopIfTrue="1">
       <formula>$B28="IN-PROGRESS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="15" stopIfTrue="1">
       <formula>$B28="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:C40 C44:C45">
-    <cfRule type="expression" dxfId="62" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="4" stopIfTrue="1">
       <formula>$B39="New"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="5" stopIfTrue="1">
       <formula>$B39="IN-PROGRESS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="6" stopIfTrue="1">
       <formula>$B39="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="59" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="7" stopIfTrue="1">
       <formula>$B30="New"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="8" stopIfTrue="1">
       <formula>$B30="IN-PROGRESS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="9" stopIfTrue="1">
       <formula>$B30="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C43">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="1" stopIfTrue="1">
       <formula>$B41="New"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="2" stopIfTrue="1">
       <formula>$B41="IN-PROGRESS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="3" stopIfTrue="1">
       <formula>$B41="Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5591,13 +5558,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B6:D37">
-    <cfRule type="expression" dxfId="53" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="1" stopIfTrue="1">
       <formula>$B6="New"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="2" stopIfTrue="1">
       <formula>$B6="IN-PROGRESS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="3" stopIfTrue="1">
       <formula>$B6="Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5872,32 +5839,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:A24">
-    <cfRule type="expression" dxfId="50" priority="18">
+    <cfRule type="expression" dxfId="47" priority="18">
       <formula>RegExMatch((#REF!),"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B14">
-    <cfRule type="expression" dxfId="49" priority="11">
+    <cfRule type="expression" dxfId="46" priority="11">
       <formula>RegExMatch((#REF!),"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="48" priority="9">
+    <cfRule type="expression" dxfId="45" priority="9">
       <formula>RegExMatch((#REF!),"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C12">
-    <cfRule type="expression" dxfId="47" priority="3">
+    <cfRule type="expression" dxfId="44" priority="3">
       <formula>RegExMatch((#REF!),"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:B42">
-    <cfRule type="expression" dxfId="46" priority="2">
+    <cfRule type="expression" dxfId="43" priority="2">
       <formula>RegExMatch((#REF!),"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C42">
-    <cfRule type="expression" dxfId="45" priority="1">
+    <cfRule type="expression" dxfId="42" priority="1">
       <formula>RegExMatch((#REF!),"Done")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5924,7 +5891,7 @@
   </sheetPr>
   <dimension ref="B1:R741"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
@@ -5965,25 +5932,25 @@
       </c>
     </row>
     <row r="3" spans="2:18" ht="32.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="73" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
       <c r="F3" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="G3" s="71">
+      <c r="G3" s="78">
         <f ca="1">$R$2</f>
         <v>0</v>
       </c>
-      <c r="H3" s="72"/>
-      <c r="I3" s="67" t="str">
+      <c r="H3" s="79"/>
+      <c r="I3" s="74" t="str">
         <f ca="1">CONCATENATE($P$2,"/",$Q$2," Completed")</f>
         <v>0/2 Completed</v>
       </c>
-      <c r="J3" s="68"/>
+      <c r="J3" s="75"/>
     </row>
     <row r="4" spans="2:18" s="54" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="51" t="s">
@@ -5995,8 +5962,8 @@
       <c r="F4" s="52"/>
       <c r="G4" s="53"/>
       <c r="H4" s="53"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="70"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="77"/>
       <c r="K4" s="52"/>
       <c r="L4" s="52"/>
       <c r="M4" s="52"/>
@@ -17245,156 +17212,156 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:M365 B743:M5465">
-    <cfRule type="expression" dxfId="44" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="51" stopIfTrue="1">
       <formula>$J6="ON-HOLD"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="52" stopIfTrue="1">
       <formula>$J6="SKIPPED"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="53" stopIfTrue="1">
       <formula>$J6="IN-PROGRESS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="54" stopIfTrue="1">
       <formula>$J6="DONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:M365 B743:M3000">
-    <cfRule type="expression" dxfId="40" priority="49">
+    <cfRule type="expression" dxfId="37" priority="49">
       <formula>$G6&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="50" stopIfTrue="1">
       <formula>AND($G6&gt;0,$J6="NEW")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A721:N742">
-    <cfRule type="expression" dxfId="38" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="45" stopIfTrue="1">
       <formula>$J721="ON-HOLD"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="46" stopIfTrue="1">
       <formula>$J721="SKIPPED"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="47" stopIfTrue="1">
       <formula>$J721="IN-PROGRESS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="48" stopIfTrue="1">
       <formula>$J721="DONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A721:N742">
-    <cfRule type="expression" dxfId="34" priority="43">
+    <cfRule type="expression" dxfId="31" priority="43">
       <formula>$G721&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="44" stopIfTrue="1">
       <formula>AND($G721&gt;0,$J721="NEW")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B714:N720 N690:N713">
-    <cfRule type="expression" dxfId="32" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="39" stopIfTrue="1">
       <formula>$J690="ON-HOLD"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="40" stopIfTrue="1">
       <formula>$J690="SKIPPED"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="41" stopIfTrue="1">
       <formula>$J690="IN-PROGRESS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="42" stopIfTrue="1">
       <formula>$J690="DONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B714:N720 N690:N713">
-    <cfRule type="expression" dxfId="28" priority="37">
+    <cfRule type="expression" dxfId="25" priority="37">
       <formula>$G690&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="38" stopIfTrue="1">
       <formula>AND($G690&gt;0,$J690="NEW")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B414:M432">
-    <cfRule type="expression" dxfId="26" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="9" stopIfTrue="1">
       <formula>$J414="ON-HOLD"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="10" stopIfTrue="1">
       <formula>$J414="SKIPPED"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="11" stopIfTrue="1">
       <formula>$J414="IN-PROGRESS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="12" stopIfTrue="1">
       <formula>$J414="DONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B414:M432">
-    <cfRule type="expression" dxfId="22" priority="7">
+    <cfRule type="expression" dxfId="19" priority="7">
       <formula>$G414&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="8" stopIfTrue="1">
       <formula>AND($G414&gt;0,$J414="NEW")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B366:M413">
-    <cfRule type="expression" dxfId="20" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="3" stopIfTrue="1">
       <formula>$J366="ON-HOLD"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="4" stopIfTrue="1">
       <formula>$J366="SKIPPED"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="5" stopIfTrue="1">
       <formula>$J366="IN-PROGRESS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="6" stopIfTrue="1">
       <formula>$J366="DONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B366:M413">
-    <cfRule type="expression" dxfId="16" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>$G366&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="2" stopIfTrue="1">
       <formula>AND($G366&gt;0,$J366="NEW")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B437:M437 B443:M443 B449:M449 B455:M455 B461:M461 B467:M467 B473:M473 B479:M479 B485:M485 B491:M491 B497:M497 B503:M503 B509:M509 B515:M515 B521:M521 B527:M527 B533:M533 B539:M539 B545:M545 B551:M551 B557:M557 B563:M563 B569:M569 B575:M575 B581:M581 B587:M587 B593:M593 B599:M599 B605:M605 B611:M611 B617:M617 B623:M623 B629:M629 B635:M635 B641:M641 B647:M647 B653:M653 B659:M659 B665:M665 B671:M671 B677:M677 B683:M683 B689:M689 B695:M695 B701:M701 B707:M707 B713:M713">
-    <cfRule type="expression" dxfId="14" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="21" stopIfTrue="1">
       <formula>$J437="ON-HOLD"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="22" stopIfTrue="1">
       <formula>$J437="SKIPPED"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="23" stopIfTrue="1">
       <formula>$J437="IN-PROGRESS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="24" stopIfTrue="1">
       <formula>$J437="DONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B437:M437 B443:M443 B449:M449 B455:M455 B461:M461 B467:M467 B473:M473 B479:M479 B485:M485 B491:M491 B497:M497 B503:M503 B509:M509 B515:M515 B521:M521 B527:M527 B533:M533 B539:M539 B545:M545 B551:M551 B557:M557 B563:M563 B569:M569 B575:M575 B581:M581 B587:M587 B593:M593 B599:M599 B605:M605 B611:M611 B617:M617 B623:M623 B629:M629 B635:M635 B641:M641 B647:M647 B653:M653 B659:M659 B665:M665 B671:M671 B677:M677 B683:M683 B689:M689 B695:M695 B701:M701 B707:M707 B713:M713">
-    <cfRule type="expression" dxfId="10" priority="19">
+    <cfRule type="expression" dxfId="7" priority="19">
       <formula>$G437&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="20" stopIfTrue="1">
       <formula>AND($G437&gt;0,$J437="NEW")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B433:M436 B438:M442 B444:M448 B450:M454 B456:M460 B462:M466 B468:M472 B474:M478 B480:M484 B486:M490 B492:M496 B498:M502 B504:M508 B510:M514 B516:M520 B522:M526 B528:M532 B534:M538 B540:M544 B546:M550 B552:M556 B558:M562 B564:M568 B570:M574 B576:M580 B582:M586 B588:M592 B594:M598 B600:M604 B606:M610 B612:M616 B618:M622 B624:M628 B630:M634 B636:M640 B642:M646 B648:M652 B654:M658 B660:M664 B666:M670 B672:M676 B678:M682 B684:M688 B690:M694 B696:M700 B702:M706 B708:M712">
-    <cfRule type="expression" dxfId="8" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="15" stopIfTrue="1">
       <formula>$J433="ON-HOLD"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="16" stopIfTrue="1">
       <formula>$J433="SKIPPED"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="17" stopIfTrue="1">
       <formula>$J433="IN-PROGRESS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="18" stopIfTrue="1">
       <formula>$J433="DONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B433:M436 B438:M442 B444:M448 B450:M454 B456:M460 B462:M466 B468:M472 B474:M478 B480:M484 B486:M490 B492:M496 B498:M502 B504:M508 B510:M514 B516:M520 B522:M526 B528:M532 B534:M538 B540:M544 B546:M550 B552:M556 B558:M562 B564:M568 B570:M574 B576:M580 B582:M586 B588:M592 B594:M598 B600:M604 B606:M610 B612:M616 B618:M622 B624:M628 B630:M634 B636:M640 B642:M646 B648:M652 B654:M658 B660:M664 B666:M670 B672:M676 B678:M682 B684:M688 B690:M694 B696:M700 B702:M706 B708:M712">
-    <cfRule type="expression" dxfId="4" priority="13">
+    <cfRule type="expression" dxfId="1" priority="13">
       <formula>$G433&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="14" stopIfTrue="1">
       <formula>AND($G433&gt;0,$J433="NEW")</formula>
     </cfRule>
   </conditionalFormatting>
